--- a/R/data/zmienne_excel.xlsx
+++ b/R/data/zmienne_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\STUDIA\I mgr\Przetwrzanie danych\II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github1\projekt_koncowy\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C2D5F-6045-484B-9D51-B43928E77E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C74333-1C97-44AF-BB63-8958292AD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5786AE32-9058-4BB2-8518-D2DF7791BB0C}"/>
   </bookViews>
@@ -424,15 +424,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4920A857-B92A-4DEE-95AE-7F942E5717A8}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,35 +776,98 @@
       <c r="A25" s="1">
         <v>45623</v>
       </c>
+      <c r="B25">
+        <v>2.9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45624</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45625</v>
       </c>
+      <c r="B27">
+        <v>5.6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45626</v>
       </c>
+      <c r="B28">
+        <v>11.4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45627</v>
       </c>
+      <c r="B29">
+        <v>6.1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45628</v>
       </c>
+      <c r="B30">
+        <v>4.8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45629</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/R/data/zmienne_excel.xlsx
+++ b/R/data/zmienne_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github1\projekt_koncowy\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C74333-1C97-44AF-BB63-8958292AD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92B9B28-18E4-483C-80BE-DBE5C6C80D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5786AE32-9058-4BB2-8518-D2DF7791BB0C}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4920A857-B92A-4DEE-95AE-7F942E5717A8}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,243 +874,558 @@
       <c r="A32" s="1">
         <v>45630</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>3.8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45631</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1.9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45632</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2.7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45633</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45634</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>3.2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45635</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>5.8</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45636</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45637</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>3.1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45638</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>3.7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45639</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45640</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>5.9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45641</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>4.5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45642</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45643</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>6.6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45644</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>3.9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45645</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>3.2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45646</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>3.4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45647</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45648</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45649</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>4.2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45650</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2.4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45651</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45652</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>3.1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45653</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2.7</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45654</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>3.1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45655</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45656</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45657</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2.7</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45658</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45659</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45660</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45661</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45662</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>2.8</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45663</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>3.4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45664</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45665</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45666</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45667</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45668</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45669</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45670</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45671</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45672</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45673</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45674</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45675</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45676</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45677</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45678</v>
       </c>
